--- a/docs/Questions.xlsx
+++ b/docs/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoonj\OneDrive\바탕 화면\To do\Development (2)\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0862C7D0-2067-43C5-9FF6-DEAF289FA27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE75840-BAE8-4FB2-9A0F-6AC6CAB2EB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="331">
   <si>
     <t>문항</t>
   </si>
@@ -1146,6 +1146,14 @@
     <t>Organizers of the Northbrook County Fair announced yesterday that the event will be held from June 15 to 18, ____A___ a great deal of excitement in the region. 
 Last year, the mayor canceled the fair, citing a decrease in attendees. However, advocates responded by successfully launching an online campaign to ____B____ awareness. 
 _______C________.Of particular note at this year's fair will be a  stand with organic juice samples from Cathy's Smoothies and a temporary skate park operated by the Youth City Council. For more information about the various event____D___ or to view a list of local businesses that will be in attendance, go to &lt;u&gt;www.northbrookfair.org. &lt;/u&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4969,8 +4977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7693B96A-530F-46FE-A1E8-26588B04B7EF}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -5030,7 +5038,7 @@
         <v>275</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.6">
@@ -5056,7 +5064,7 @@
         <v>280</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="185.65" x14ac:dyDescent="0.6">
@@ -5082,7 +5090,7 @@
         <v>285</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="202.5" x14ac:dyDescent="0.6">
@@ -5108,7 +5116,7 @@
         <v>289</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="202.5" x14ac:dyDescent="0.6">
@@ -5134,7 +5142,7 @@
         <v>293</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="202.5" x14ac:dyDescent="0.6">
@@ -5160,7 +5168,7 @@
         <v>297</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="202.5" x14ac:dyDescent="0.6">
@@ -5186,7 +5194,7 @@
         <v>301</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.6">
@@ -5212,7 +5220,7 @@
         <v>305</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="151.9" x14ac:dyDescent="0.6">
@@ -5238,7 +5246,7 @@
         <v>309</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="337.5" x14ac:dyDescent="0.6">
@@ -5264,7 +5272,7 @@
         <v>313</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
